--- a/src/analysis_examples/circadb/results_lomb/cosinor_10556487_nan_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10556487_nan_.xlsx
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.26303488409899073, 0.3963657546786508]</t>
+          <t>[0.2623630741240337, 0.39703756465360784]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.181912123726647e-09</v>
+        <v>1.410626060405207e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.181912123726647e-09</v>
+        <v>1.410626060405207e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.056631763369539</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2578949563923087, -0.8553685703467702]</t>
+          <t>[-1.2704739059562318, -0.8427896207828471]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>4.073859027897697e-10</v>
+        <v>1.200730181949439e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>4.073859027897697e-10</v>
+        <v>1.200730181949439e-09</v>
       </c>
       <c r="S2" t="n">
         <v>0.3118270288398404</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.27599915581244056, 0.3476549018672403]</t>
+          <t>[0.2760188524525008, 0.34763520522718006]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.731148640577885e-14</v>
+        <v>2.708944180085382e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>2.731148640577885e-14</v>
+        <v>2.708944180085382e-14</v>
       </c>
       <c r="W2" t="n">
         <v>4.024264264264364</v>
       </c>
       <c r="X2" t="n">
-        <v>3.257737737737818</v>
+        <v>3.20982982982991</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.79079079079091</v>
+        <v>4.838698698698818</v>
       </c>
     </row>
   </sheetData>
